--- a/MonsterCrusher Mod.2仕様書.xlsx
+++ b/MonsterCrusher Mod.2仕様書.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347035\Desktop\GitHub\MonsterCrusher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA0F831-DCA0-405C-83A3-0EB88060C409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75954671-0498-467C-B208-8D8BC90E5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ゲーム内容" sheetId="13" r:id="rId1"/>
-    <sheet name="シーン遷移" sheetId="2" r:id="rId2"/>
+    <sheet name="シーン遷移" sheetId="2" r:id="rId1"/>
+    <sheet name="ゲーム内容" sheetId="13" r:id="rId2"/>
     <sheet name="仕様" sheetId="1" r:id="rId3"/>
     <sheet name="コントローラー" sheetId="12" r:id="rId4"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
   <si>
     <t>仕様概要</t>
     <rPh sb="0" eb="4">
@@ -924,6 +924,25 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>シュツゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵を倒すと一定確率で回復アイテムをドロップする</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1455,12 +1474,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1468,6 +1481,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3983,43 +4002,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787BD88-9E4B-4D37-AE37-F01A993BEF37}">
-  <dimension ref="A1:A6"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A9A021-AEF4-47B1-832B-13F8B65F0761}">
   <dimension ref="B2:S27"/>
   <sheetViews>
@@ -4073,11 +4055,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787BD88-9E4B-4D37-AE37-F01A993BEF37}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B33" sqref="B33:B41"/>
     </sheetView>
   </sheetViews>
@@ -4124,7 +4148,7 @@
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="51" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -4140,7 +4164,7 @@
       <c r="I3" s="37"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="49"/>
+      <c r="B4" s="52"/>
       <c r="C4" s="19" t="s">
         <v>12</v>
       </c>
@@ -4156,7 +4180,7 @@
       <c r="I4" s="38"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="49"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="19" t="s">
         <v>15</v>
       </c>
@@ -4170,7 +4194,7 @@
       <c r="I5" s="38"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="49"/>
+      <c r="B6" s="52"/>
       <c r="C6" s="19" t="s">
         <v>96</v>
       </c>
@@ -4189,7 +4213,7 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="49"/>
+      <c r="B7" s="52"/>
       <c r="C7" s="19" t="s">
         <v>75</v>
       </c>
@@ -4205,7 +4229,7 @@
       <c r="I7" s="38"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="49"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="19" t="s">
         <v>16</v>
       </c>
@@ -4231,7 +4255,7 @@
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="48" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="28" t="s">
@@ -4247,7 +4271,7 @@
       <c r="I10" s="40"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="51"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="19" t="s">
         <v>12</v>
       </c>
@@ -4263,7 +4287,7 @@
       <c r="I11" s="38"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="51"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="19" t="s">
         <v>15</v>
       </c>
@@ -4277,7 +4301,7 @@
       <c r="I12" s="38"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="51"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="19" t="s">
         <v>22</v>
       </c>
@@ -4289,7 +4313,7 @@
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="2:14" ht="25.5" customHeight="1">
-      <c r="B14" s="51"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="19" t="s">
         <v>96</v>
       </c>
@@ -4303,7 +4327,7 @@
       <c r="I14" s="38"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="51"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="19" t="s">
         <v>24</v>
       </c>
@@ -4317,7 +4341,7 @@
       <c r="I15" s="38"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="51"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="32" t="s">
         <v>81</v>
       </c>
@@ -4331,7 +4355,7 @@
       <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:28" ht="19.5" thickBot="1">
-      <c r="B17" s="52"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="33" t="s">
         <v>16</v>
       </c>
@@ -4395,7 +4419,7 @@
       <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:28">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="17" t="s">
@@ -4411,7 +4435,7 @@
       <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="B22" s="51"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="19" t="s">
         <v>44</v>
       </c>
@@ -4427,7 +4451,7 @@
       <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="B23" s="51"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="19" t="s">
         <v>47</v>
       </c>
@@ -4445,7 +4469,7 @@
       <c r="I23" s="38"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="B24" s="51"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="32" t="s">
         <v>83</v>
       </c>
@@ -4460,7 +4484,7 @@
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1">
       <c r="A25" s="15"/>
-      <c r="B25" s="52"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="33" t="s">
         <v>91</v>
       </c>
@@ -4476,7 +4500,7 @@
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="15"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="48" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="21" t="s">
@@ -4491,7 +4515,7 @@
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="15"/>
-      <c r="B27" s="51"/>
+      <c r="B27" s="49"/>
       <c r="C27" s="12" t="s">
         <v>29</v>
       </c>
@@ -4510,7 +4534,7 @@
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="15"/>
-      <c r="B28" s="51"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="12" t="s">
         <v>33</v>
       </c>
@@ -4527,7 +4551,7 @@
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="16"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="12" t="s">
         <v>35</v>
       </c>
@@ -4561,7 +4585,7 @@
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="15"/>
-      <c r="B30" s="51"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="12" t="s">
         <v>37</v>
       </c>
@@ -4597,7 +4621,7 @@
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="15"/>
-      <c r="B31" s="51"/>
+      <c r="B31" s="49"/>
       <c r="C31" s="12" t="s">
         <v>39</v>
       </c>
@@ -4633,7 +4657,7 @@
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1">
       <c r="A32" s="15"/>
-      <c r="B32" s="52"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="13" t="s">
         <v>40</v>
       </c>
@@ -4669,7 +4693,7 @@
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="15"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="48" t="s">
         <v>93</v>
       </c>
       <c r="C33" s="21" t="s">
@@ -4702,7 +4726,7 @@
       <c r="AB33" s="15"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="B34" s="51"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="24" t="s">
         <v>95</v>
       </c>
@@ -4714,7 +4738,7 @@
       <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="B35" s="51"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="12" t="s">
         <v>12</v>
       </c>
@@ -4726,7 +4750,7 @@
       <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="B36" s="51"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
@@ -4738,7 +4762,7 @@
       <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="B37" s="51"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="12" t="s">
         <v>22</v>
       </c>
@@ -4750,7 +4774,7 @@
       <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="B38" s="51"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="12" t="s">
         <v>16</v>
       </c>
@@ -4762,7 +4786,7 @@
       <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="B39" s="51"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="12" t="s">
         <v>24</v>
       </c>
@@ -4774,7 +4798,7 @@
       <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="B40" s="51"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="25" t="s">
         <v>81</v>
       </c>
@@ -4786,7 +4810,7 @@
       <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:28" ht="19.5" thickBot="1">
-      <c r="B41" s="52"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="47" t="s">
         <v>16</v>
       </c>
@@ -4836,7 +4860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A798A6CE-A9BE-434F-A498-CA0970739C38}">
   <dimension ref="B1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -4980,6 +5004,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100534661B278935E44B366872DF9464E45" ma:contentTypeVersion="15" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="87be336555b78707b8880fee16249c2c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="56f67181-167d-4f85-a438-a55f61d398e9" xmlns:ns3="c2562f78-638f-4b8f-b708-acdd87129c74" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b22ecc2f48af7f73de819eeebf1146e0" ns2:_="" ns3:_="">
     <xsd:import namespace="56f67181-167d-4f85-a438-a55f61d398e9"/>
@@ -5214,16 +5247,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56D4D6C-6A9F-4EDA-B412-F3373793C804}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C3D1A1F-F9BB-4450-A41E-74C6FAAADB17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5240,12 +5272,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E56D4D6C-6A9F-4EDA-B412-F3373793C804}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/MonsterCrusher Mod.2仕様書.xlsx
+++ b/MonsterCrusher Mod.2仕様書.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347035\Desktop\GitHub\MonsterCrusher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75954671-0498-467C-B208-8D8BC90E5989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AB1D8E-EB07-4115-A982-CDD0F51B53DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シーン遷移" sheetId="2" r:id="rId1"/>
-    <sheet name="ゲーム内容" sheetId="13" r:id="rId2"/>
-    <sheet name="仕様" sheetId="1" r:id="rId3"/>
-    <sheet name="コントローラー" sheetId="12" r:id="rId4"/>
+    <sheet name="ゲーム内容" sheetId="13" r:id="rId1"/>
+    <sheet name="仕様" sheetId="1" r:id="rId2"/>
+    <sheet name="コントローラー" sheetId="12" r:id="rId3"/>
+    <sheet name="シーン遷移" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="120">
   <si>
     <t>仕様概要</t>
     <rPh sb="0" eb="4">
@@ -781,35 +781,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃：プレイヤーに突っ込んでくる</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃：大砲で弾を撃つ</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タイホウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エフェクト</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -902,19 +873,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・最初のほうはモブしかいないが、最後のほうにボスが現れる</t>
-    <rPh sb="1" eb="3">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アラワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ボスを倒すと、新しいステージが出現します</t>
     <rPh sb="4" eb="5">
       <t>タオ</t>
@@ -928,21 +886,249 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・敵を倒すと一定確率で回復アイテムをドロップする</t>
-    <rPh sb="1" eb="2">
+    <t>ストーリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>先に進みながら攻め込んでくる敵の数を減らし、祖国に攻め込む敵を引かせる</t>
+    <rPh sb="0" eb="1">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
       <t>テキ</t>
     </rPh>
+    <rPh sb="16" eb="17">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソコク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスを倒してもまた新たなボスが生まれまた、攻め込まれる</t>
     <rPh sb="3" eb="4">
       <t>タオ</t>
     </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="9" eb="10">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>祖国に攻め込んでくる敵を倒していく</t>
+    <rPh sb="0" eb="2">
+      <t>ソコク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・最初のほうはモブしか湧かない、最後にボスが現れる</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・モブを倒すと、一定確率でアイテムを落とす。</t>
+    <rPh sb="4" eb="5">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>イッテイカクリツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→入手すると、体力が回復する</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ステージをクリアすると、ステータスをアップすることができる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　→攻撃力アップ,魔法攻撃力アップor魔法の種類が増加または進化</t>
+    <rPh sb="3" eb="6">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　　防御力のアップ,HPの上限アップ</t>
+    <rPh sb="3" eb="6">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃：遠距離のプレイヤーに対して、
+　　　遠距離攻撃を行う</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃：近距離のプレイヤーに
+          近距離攻撃を行う</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>キンキョリ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>マホウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法攻撃:遠距離</t>
+    <rPh sb="0" eb="4">
+      <t>マホウコウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>エンキョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bボタンを押すと</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動,アタックなどのアニメーション</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>具体的な内容</t>
+    <rPh sb="0" eb="3">
+      <t>グタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -975,7 +1161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,14 +1186,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1374,18 +1554,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -1414,7 +1583,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,9 +1628,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1483,16 +1648,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1518,6 +1689,557 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15626EE-4C37-4538-BCC5-59531CBD0539}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6162675" y="1685925"/>
+          <a:ext cx="3324225" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E54023B-E9E4-4CCE-BBD6-3E36651FF4F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8391525" y="1800225"/>
+          <a:ext cx="2257425" cy="600076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8968CDB8-06C7-456C-8852-CF601ADA2CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8277225" y="2762250"/>
+          <a:ext cx="2428875" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938D1659-C09A-4D9D-85AC-2BA96103BEF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6934200" y="1028700"/>
+          <a:ext cx="28575" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57720F8-30AB-44AD-A111-4A0EF7E837D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8048625" y="1323975"/>
+          <a:ext cx="1943100" cy="1047750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F75BAB-405A-42C4-BB58-767FC36E5C14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6162674" y="5810250"/>
+          <a:ext cx="3324225" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C81750E-4E95-4E71-9B39-3084DB7CE1AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8829674" y="6172200"/>
+          <a:ext cx="1866900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0232DF6F-6042-490B-B558-B46D1DEACD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8582024" y="6429375"/>
+          <a:ext cx="2143125" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB83748F-F0F1-4C9F-9D8E-AD6A9F49DF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6934199" y="5153025"/>
+          <a:ext cx="28575" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC200817-E230-4BEE-9BE0-1B34B545ADD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9429750" y="2295525"/>
+          <a:ext cx="1857375" cy="133352"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3242,504 +3964,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F15626EE-4C37-4538-BCC5-59531CBD0539}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6162675" y="1685925"/>
-          <a:ext cx="3324225" cy="2305050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E54023B-E9E4-4CCE-BBD6-3E36651FF4F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8391525" y="1800225"/>
-          <a:ext cx="2257425" cy="600076"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8968CDB8-06C7-456C-8852-CF601ADA2CBE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8277225" y="2762250"/>
-          <a:ext cx="2428875" cy="123825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{938D1659-C09A-4D9D-85AC-2BA96103BEF2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6934200" y="1028700"/>
-          <a:ext cx="28575" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="直線矢印コネクタ 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57720F8-30AB-44AD-A111-4A0EF7E837D4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8048625" y="1323975"/>
-          <a:ext cx="1943100" cy="1047750"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247649</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F75BAB-405A-42C4-BB58-767FC36E5C14}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6162674" y="5810250"/>
-          <a:ext cx="3324225" cy="2305050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C81750E-4E95-4E71-9B39-3084DB7CE1AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8829674" y="6172200"/>
-          <a:ext cx="1866900" cy="323850"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0232DF6F-6042-490B-B558-B46D1DEACD2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8582024" y="6429375"/>
-          <a:ext cx="2143125" cy="352425"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>333374</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB83748F-F0F1-4C9F-9D8E-AD6A9F49DF07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6934199" y="5153025"/>
-          <a:ext cx="28575" cy="1257300"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4002,92 +4226,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A9A021-AEF4-47B1-832B-13F8B65F0761}">
-  <dimension ref="B2:S27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787BD88-9E4B-4D37-AE37-F01A993BEF37}">
+  <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB27" sqref="AB27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="2" spans="2:19">
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19">
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19">
-      <c r="B5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I5" t="s">
-        <v>54</v>
-      </c>
-      <c r="S5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="I16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="9:19">
-      <c r="S17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="9:19">
-      <c r="I27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787BD88-9E4B-4D37-AE37-F01A993BEF37}">
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" s="1" customFormat="1">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4097,12 +4312,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B41"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4122,90 +4337,85 @@
       </c>
     </row>
     <row r="2" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="45" t="s">
+      <c r="G2" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="46" t="s">
+      <c r="I2" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:14">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="37"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="52"/>
-      <c r="C4" s="19" t="s">
+      <c r="B4" s="54"/>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
+      <c r="B5" s="54"/>
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="52"/>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="38"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="52"/>
-      <c r="C6" s="19" t="s">
-        <v>96</v>
+      <c r="B6" s="54"/>
+      <c r="C6" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="38"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -4213,417 +4423,412 @@
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="52"/>
-      <c r="C7" s="19" t="s">
-        <v>75</v>
+      <c r="B7" s="54"/>
+      <c r="C7" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="38"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="52"/>
-      <c r="C8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="38"/>
-    </row>
-    <row r="9" spans="2:14" ht="19.5" thickBot="1">
-      <c r="B9" s="42"/>
-      <c r="C9" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="48" t="s">
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="2:14">
+      <c r="B9" s="54"/>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="2:14" ht="19.5" thickBot="1">
+      <c r="B10" s="54"/>
+      <c r="C10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="41"/>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C11" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="40"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="49"/>
-      <c r="C11" s="19" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="39"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="47"/>
+      <c r="C12" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="38"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="49"/>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="38"/>
+      <c r="I12" s="37"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="49"/>
-      <c r="C13" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="38"/>
+      <c r="I13" s="37"/>
     </row>
     <row r="14" spans="2:14" ht="25.5" customHeight="1">
-      <c r="B14" s="49"/>
-      <c r="C14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="38"/>
+      <c r="I14" s="37"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="49"/>
-      <c r="C15" s="19" t="s">
-        <v>24</v>
+      <c r="B15" s="47"/>
+      <c r="C15" s="18" t="s">
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="38"/>
+      <c r="I15" s="37"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="49"/>
-      <c r="C16" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>82</v>
+      <c r="B16" s="47"/>
+      <c r="C16" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:28" ht="19.5" thickBot="1">
-      <c r="B17" s="50"/>
-      <c r="C17" s="33" t="s">
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="B17" s="47"/>
+      <c r="C17" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:28" ht="19.5" thickBot="1">
+      <c r="B18" s="48"/>
+      <c r="C18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="B18" s="53" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="B19" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:28" ht="19.5" thickBot="1">
-      <c r="B19" s="54"/>
-      <c r="C19" s="20" t="s">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="39"/>
+    </row>
+    <row r="20" spans="1:28" ht="19.5" thickBot="1">
+      <c r="B20" s="50"/>
+      <c r="C20" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:28" ht="19.5" thickBot="1">
-      <c r="B20" s="27" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:28" ht="19.5" thickBot="1">
+      <c r="B21" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D21" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="B21" s="48" t="s">
+      <c r="E21" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="B22" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="B22" s="49"/>
-      <c r="C22" s="19" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="B23" s="47"/>
+      <c r="C23" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="38"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="B23" s="49"/>
-      <c r="C23" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="38"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="B24" s="49"/>
-      <c r="C24" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="38"/>
-    </row>
-    <row r="25" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="33" t="s">
+      <c r="I24" s="37"/>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" s="14"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="37"/>
+    </row>
+    <row r="26" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D26" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="15"/>
-      <c r="B26" s="48" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="38"/>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" s="14"/>
+      <c r="B27" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="15"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="12" t="s">
+      <c r="D27" s="8"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="39"/>
+    </row>
+    <row r="28" spans="1:28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="38"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
-      <c r="I28" s="38"/>
+      <c r="I28" s="37"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29" s="16"/>
-      <c r="B29" s="49"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
+      <c r="I29" s="37"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30" s="15"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
-      <c r="R30" s="15"/>
-      <c r="S30" s="15"/>
-      <c r="T30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-      <c r="X30" s="15"/>
-      <c r="Y30" s="15"/>
-      <c r="Z30" s="15"/>
-      <c r="AA30" s="15"/>
-      <c r="AB30" s="15"/>
+      <c r="I30" s="37"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31" s="15"/>
-      <c r="B31" s="49"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>38</v>
@@ -4634,35 +4839,34 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-    </row>
-    <row r="32" spans="1:28" ht="19.5" thickBot="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="13" t="s">
-        <v>40</v>
+      <c r="I31" s="37"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+    </row>
+    <row r="32" spans="1:28">
+      <c r="A32" s="14"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>30</v>
@@ -4670,185 +4874,195 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="15"/>
-      <c r="B33" s="48" t="s">
+      <c r="I32" s="37"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+    </row>
+    <row r="33" spans="1:28" ht="19.5" thickBot="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="37"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+    </row>
+    <row r="34" spans="1:28" ht="37.5">
+      <c r="B34" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="15"/>
-      <c r="Y33" s="15"/>
-      <c r="Z33" s="15"/>
-      <c r="AA33" s="15"/>
-      <c r="AB33" s="15"/>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="B34" s="49"/>
-      <c r="C34" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="38"/>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="B35" s="49"/>
-      <c r="C35" s="12" t="s">
-        <v>12</v>
+      <c r="C34" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="36"/>
+    </row>
+    <row r="35" spans="1:28" ht="37.5">
+      <c r="B35" s="47"/>
+      <c r="C35" s="51" t="s">
+        <v>113</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="G35" s="34"/>
       <c r="H35" s="3"/>
-      <c r="I35" s="38"/>
+      <c r="I35" s="37"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="B36" s="49"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
-      <c r="I36" s="38"/>
+      <c r="I36" s="37"/>
     </row>
     <row r="37" spans="1:28">
-      <c r="B37" s="49"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
-      <c r="I37" s="38"/>
+      <c r="I37" s="37"/>
     </row>
     <row r="38" spans="1:28">
-      <c r="B38" s="49"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
-      <c r="I38" s="38"/>
+      <c r="I38" s="37"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="B39" s="49"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="12" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
-      <c r="I39" s="38"/>
+      <c r="I39" s="37"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="B40" s="49"/>
-      <c r="C40" s="25" t="s">
-        <v>81</v>
+      <c r="B40" s="47"/>
+      <c r="C40" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" s="38"/>
-    </row>
-    <row r="41" spans="1:28" ht="19.5" thickBot="1">
-      <c r="B41" s="50"/>
-      <c r="C41" s="47" t="s">
+      <c r="I40" s="37"/>
+    </row>
+    <row r="41" spans="1:28">
+      <c r="B41" s="47"/>
+      <c r="C41" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="37"/>
+    </row>
+    <row r="42" spans="1:28" ht="19.5" thickBot="1">
+      <c r="B42" s="48"/>
+      <c r="C42" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="10"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="39"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44" s="15"/>
-      <c r="J44" s="15"/>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="15"/>
-      <c r="J56" s="15"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="15"/>
-      <c r="J57" s="15"/>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="15"/>
-      <c r="J58" s="15"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="15"/>
-      <c r="J59" s="15"/>
+      <c r="A44" s="14"/>
+      <c r="J44" s="14"/>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="14"/>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="14"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B33:B41"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B34:B42"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B33"/>
+    <mergeCell ref="B3:B10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4856,12 +5070,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A798A6CE-A9BE-434F-A498-CA0970739C38}">
   <dimension ref="B1:N27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4898,19 +5112,21 @@
       </c>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="C5" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12"/>
@@ -4948,34 +5164,39 @@
       </c>
       <c r="D9" s="13"/>
     </row>
+    <row r="10" spans="2:14">
+      <c r="N10" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="12" spans="2:14">
       <c r="N12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="2:14">
-      <c r="E14" s="15"/>
+      <c r="E14" s="14"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="E15" s="15"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="15"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
     </row>
     <row r="21" spans="2:14">
       <c r="F21" t="s">
@@ -4993,6 +5214,60 @@
     <row r="27" spans="2:14">
       <c r="N27" t="s">
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A9A021-AEF4-47B1-832B-13F8B65F0761}">
+  <dimension ref="B2:S27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="2" spans="2:19">
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="D3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="I16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="9:19">
+      <c r="S17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="9:19">
+      <c r="I27" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
